--- a/ditches.xlsx
+++ b/ditches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobiosmac/Desktop/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobiosmac/Desktop/Trabalhos &amp; Repositórios/Artigos em Andamento/Cap I Tese/fish_community_roadside_ditches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F870D98-923A-7340-A3EA-DED966BFA128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF990E-DD98-0348-BCF0-0DF37F355FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15480" xr2:uid="{08149444-27A5-1E40-99E3-0CB1BB42D676}"/>
   </bookViews>
@@ -388,9 +388,6 @@
     <t>0.6</t>
   </si>
   <si>
-    <t>Geophagus brasiliensis</t>
-  </si>
-  <si>
     <t>Poecilia reticulata</t>
   </si>
   <si>
@@ -818,6 +815,9 @@
   </si>
   <si>
     <t>Hollandichthys multifasciatus</t>
+  </si>
+  <si>
+    <t>Geophagus iporangensis</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79264C45-BB3A-4B4C-8414-8FEF3D6C77C2}">
   <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,34 +1281,34 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
@@ -1317,13 +1317,13 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>78</v>
@@ -1338,7 +1338,7 @@
         <v>47</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>27</v>
@@ -1347,34 +1347,34 @@
         <v>28</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>99</v>
       </c>
       <c r="AC1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AD1" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="AE1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="AH1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1602,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1709,7 +1709,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1816,7 +1816,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1923,7 +1923,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -2030,7 +2030,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -2137,7 +2137,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -2244,7 +2244,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -2351,7 +2351,7 @@
         <v>102</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -2455,10 +2455,10 @@
         <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         <v>113</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -2583,13 +2583,13 @@
         <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" s="1">
         <v>4640</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13" s="5">
         <v>25</v>
@@ -2666,13 +2666,13 @@
         <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -2687,7 +2687,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>53</v>
@@ -2702,13 +2702,13 @@
         <v>50</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="Q14" s="1">
         <v>54</v>
@@ -2773,13 +2773,13 @@
         <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -2797,7 +2797,7 @@
         <v>39</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K15" s="1">
         <v>493.16</v>
@@ -2809,13 +2809,13 @@
         <v>25</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="Q15" s="1">
         <v>143</v>
@@ -2880,13 +2880,13 @@
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -2901,31 +2901,31 @@
         <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K16" s="1">
         <v>4710</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16" s="5">
         <v>50</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="R16" s="1">
         <v>34</v>
@@ -2984,28 +2984,28 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>37</v>
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="Q17" s="1">
         <v>154</v>
@@ -3091,22 +3091,22 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>6</v>
@@ -3130,13 +3130,13 @@
         <v>25</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="Q18" s="1">
         <v>147</v>
@@ -3198,16 +3198,16 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -3225,7 +3225,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K19" s="5">
         <v>503.93</v>
@@ -3237,13 +3237,13 @@
         <v>25</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="1">
         <v>103</v>
@@ -3305,16 +3305,16 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -3329,28 +3329,28 @@
         <v>80</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K20" s="1">
         <v>3560</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="1">
         <v>70</v>
@@ -3412,16 +3412,16 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -3433,19 +3433,19 @@
         <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K21" s="1">
         <v>4670</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M21" s="5">
         <v>50</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="1">
         <v>54</v>
@@ -3519,16 +3519,16 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
@@ -3537,34 +3537,34 @@
         <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H22" s="1">
         <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K22" s="1">
         <v>4690</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M22" s="5">
         <v>50</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="1">
         <v>51</v>
@@ -3626,22 +3626,22 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>32</v>
@@ -3650,10 +3650,10 @@
         <v>49</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K23" s="1">
         <v>493.8</v>
@@ -3665,13 +3665,13 @@
         <v>25</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="1">
         <v>137</v>
@@ -3733,16 +3733,16 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -3760,25 +3760,25 @@
         <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K24" s="1">
         <v>4680</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M24" s="5">
         <v>50</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="Q24" s="1">
         <v>77</v>
@@ -3840,25 +3840,25 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="1">
         <v>13</v>
@@ -3867,25 +3867,25 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K25" s="1">
         <v>4692</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M25" s="5">
         <v>50</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="Q25" s="1">
         <v>52</v>
@@ -3947,22 +3947,22 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>79</v>
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="1">
         <v>141</v>
@@ -4054,25 +4054,25 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="1">
         <v>23</v>
@@ -4081,25 +4081,25 @@
         <v>66</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K27" s="5">
         <v>620.66999999999996</v>
       </c>
       <c r="L27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="Q27" s="1">
         <v>144</v>
@@ -4161,31 +4161,31 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>110</v>
@@ -4200,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="Q28" s="1">
         <v>151</v>
@@ -4268,16 +4268,16 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -4286,16 +4286,16 @@
         <v>30</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K29" s="5">
         <v>502.13</v>
@@ -4307,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="Q29" s="1">
         <v>136</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -4396,10 +4396,10 @@
         <v>19</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>53</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="1">
         <v>105</v>
@@ -4482,22 +4482,22 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>34</v>
@@ -4509,25 +4509,25 @@
         <v>115</v>
       </c>
       <c r="J31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K31" s="5">
         <v>4700</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M31" s="5">
         <v>50</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="1">
         <v>97</v>
@@ -4589,22 +4589,22 @@
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D32" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>38</v>
@@ -4613,16 +4613,16 @@
         <v>31</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="K32" s="5">
         <v>4865.16</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M32" s="5">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q32" s="1">
         <v>92</v>
@@ -4696,16 +4696,16 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -4714,16 +4714,16 @@
         <v>76</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H33" s="1">
         <v>39</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="K33" s="5">
         <v>8020</v>
@@ -4735,13 +4735,13 @@
         <v>50</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="Q33" s="1">
         <v>100</v>
@@ -4803,34 +4803,34 @@
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K34" s="5">
         <v>945.08</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="Q34" s="1">
         <v>106</v>
@@ -4910,16 +4910,16 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -4937,7 +4937,7 @@
         <v>2.6</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K35" s="5">
         <v>7600</v>
@@ -5017,16 +5017,16 @@
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -5044,13 +5044,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K36" s="1">
         <v>3590</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M36" s="5">
         <v>0</v>
@@ -5124,16 +5124,16 @@
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -5151,7 +5151,7 @@
         <v>2.4</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K37" s="1">
         <v>3590</v>
